--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="ValidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="InvalidLogin" sheetId="3" r:id="rId3"/>
-    <sheet name="BillingInfo" sheetId="4" r:id="rId4"/>
-    <sheet name="LoginDetails" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="BillingInfo" sheetId="4" r:id="rId2"/>
+    <sheet name="LoginDetails" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>FirstName</t>
   </si>
@@ -495,74 +492,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -637,12 +566,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,56 +620,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>MY DASHBOARD</t>
   </si>
   <si>
-    <t>dine.rohi13344@htc.com</t>
+    <t>xyz@htc.com</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>xyz@htc.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>

--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -93,7 +93,7 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>xyz456@htc.com</t>
+    <t>xyz789@htc.com</t>
   </si>
 </sst>
 </file>

--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -93,7 +93,7 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>xyz789@htc.com</t>
+    <t>abc789@htc.com</t>
   </si>
 </sst>
 </file>

--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -93,7 +93,10 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>abc789@htc.com</t>
+    <t>ShirtQuantity</t>
+  </si>
+  <si>
+    <t>abe729@htc.com</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +509,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +537,11 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -562,6 +568,9 @@
       </c>
       <c r="I2" t="s">
         <v>8</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/NewMadinson/src/test/resources/Data.xlsx
+++ b/NewMadinson/src/test/resources/Data.xlsx
@@ -96,7 +96,7 @@
     <t>ShirtQuantity</t>
   </si>
   <si>
-    <t>abe729@htc.com</t>
+    <t>rrr786@htc.com</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
